--- a/KD_Count.xlsx
+++ b/KD_Count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevincho/Desktop/kd_helper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cody/Desktop/kitchen_duty_selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A936633-4CB4-0947-BDCD-D52D0E75A276}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B6A3A5-204F-CD42-9ADA-E7E4C137CDB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19420" yWindow="500" windowWidth="16360" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="460" windowWidth="15020" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,14 +240,17 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -499,8 +502,8 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -554,7 +557,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2">

--- a/KD_Count.xlsx
+++ b/KD_Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cody/Desktop/kitchen_duty_selector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B6A3A5-204F-CD42-9ADA-E7E4C137CDB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DFB19-203A-A24B-9053-B65DC36200F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="460" windowWidth="15020" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Fines</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Abhinav Sehgal</t>
   </si>
   <si>
-    <t xml:space="preserve">no more for 4 weeks </t>
-  </si>
-  <si>
     <t>Andrew Walker</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Gavin Mueller</t>
   </si>
   <si>
-    <t>Try to schedule for Monday or Wednesday dinner</t>
-  </si>
-  <si>
     <t>Griffin Gillespie</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>Jack Stewart</t>
   </si>
   <si>
-    <t>Can't do any while his arm is fucked</t>
-  </si>
-  <si>
     <t>Jackson Hinckley</t>
   </si>
   <si>
@@ -224,13 +215,19 @@
   </si>
   <si>
     <t>Tristan Hollon-Brooks</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>nope</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -249,6 +246,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -273,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -282,6 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -514,13 +518,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -534,18 +538,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
         <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
@@ -554,10 +556,10 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
@@ -566,10 +568,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2">
@@ -578,103 +580,101 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" s="2">
@@ -683,125 +683,125 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="8">
+        <v>6</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="B25" s="8">
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="8">
+        <v>6</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="B29" s="8">
+        <v>7</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2">
@@ -810,139 +810,143 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="8">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="B32" s="8">
+        <v>6</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="B33" s="8">
+        <v>7</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="B34" s="8">
+        <v>5</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="B35" s="8">
+        <v>6</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="B36" s="8">
+        <v>5</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="B37" s="8">
+        <v>5</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="B38" s="8">
+        <v>5</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="2">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="B40" s="8">
+        <v>5</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B41" s="8">
+        <v>5</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="3">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="B42" s="8">
+        <v>6</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="2">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B43" s="8">
+        <v>4</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="2">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="B44" s="8">
+        <v>5</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2">
@@ -951,10 +955,10 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="3">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="B45" s="8">
+        <v>5</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2">
@@ -963,19 +967,19 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="2">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="B46" s="8">
+        <v>5</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="B47" s="8">
+        <v>6</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2">
@@ -984,126 +988,128 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="3">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="B48" s="8">
+        <v>5</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="3">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="B49" s="8">
+        <v>6</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="2">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B50" s="8">
+        <v>3</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="3">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="B51" s="8">
+        <v>5</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="3">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B52" s="8">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="3">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="B53" s="8">
+        <v>5</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="3">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B54" s="8">
+        <v>6</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="3">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="B55" s="8">
+        <v>6</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="3">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="B56" s="8">
+        <v>6</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="3">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B57" s="8">
+        <v>6</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="3">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="B58" s="8">
+        <v>6</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="B59" s="8">
+        <v>6</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="3">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="B60" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B61" s="8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
